--- a/documentation/template/scm-user-list.xlsx
+++ b/documentation/template/scm-user-list.xlsx
@@ -79,7 +79,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SVN 계정</t>
+    <t>계정명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +582,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
